--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_11.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>389174.9329775549</v>
+        <v>376546.9572276621</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2589789.105914734</v>
+        <v>2629876.587221766</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19958284.28136534</v>
+        <v>19997574.02179436</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4921377.627926294</v>
+        <v>4901774.857294664</v>
       </c>
     </row>
     <row r="11">
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>44.13217237922859</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X2" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y2" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -753,13 +753,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="I3" t="n">
-        <v>38.87161743162454</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -789,10 +789,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="4">
@@ -829,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,16 +856,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>24.5704967621155</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -899,25 +899,25 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F5" t="n">
-        <v>26.92232807701203</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="G5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="6">
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>44.13217237922859</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="T6" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U6" t="n">
-        <v>38.87161743162454</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1069,16 +1069,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>44.13217237922859</v>
+        <v>27.29193749722201</v>
       </c>
       <c r="I7" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J7" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K7" t="n">
-        <v>0.790450447682262</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1130,31 +1130,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>22.91618947337665</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1221,16 +1221,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>38.12502610536668</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G9" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H9" t="n">
-        <v>44.13217237922859</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="I9" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1412,19 +1412,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>24.87477961344436</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1452,16 +1452,16 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1506,16 +1506,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1549,10 +1549,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1570,19 +1570,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,16 +1610,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E14" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U14" t="n">
-        <v>44.13217237922859</v>
+        <v>12.92549025883184</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1692,19 +1692,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F15" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G15" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>38.12502610536669</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1780,16 +1780,16 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>27.29193749722201</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1807,16 +1807,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1886,10 +1886,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>28.88091821707974</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S17" t="n">
         <v>44.13217237922859</v>
@@ -1898,7 +1898,7 @@
         <v>44.13217237922859</v>
       </c>
       <c r="U17" t="n">
-        <v>44.13217237922859</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1929,55 +1929,55 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="F18" t="n">
+      <c r="S18" t="n">
+        <v>38.87161743162455</v>
+      </c>
+      <c r="T18" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="G18" t="n">
+      <c r="U18" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="H18" t="n">
-        <v>38.87161743162454</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="T19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>241.0142888776591</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>31.60815104066432</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2318,14 +2318,14 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,19 +2394,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>130.1470570050006</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>29.2051943158202</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -2454,16 +2454,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2600,25 +2600,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>102.3382270926889</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2646,16 +2646,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2685,16 +2685,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>157.9784691189487</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2770,10 +2770,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,73 +2789,73 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2871,10 +2871,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>134.6855069843875</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0.3647232752677871</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -2886,13 +2886,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2928,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -3004,19 +3004,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,25 +3074,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3108,25 +3108,25 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -3162,16 +3162,16 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>122.6216409516451</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="H35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F35" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,13 +3311,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>19.72793538656374</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3342,31 +3342,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>74.00335750079418</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,19 +3390,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>83.55470617651446</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3424,67 +3424,67 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3524,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,28 +3545,28 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>212.285385643442</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3582,25 +3582,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>30.7481046198737</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -3630,19 +3630,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>34.66067414728066</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3700,13 +3700,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3755,13 +3755,13 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>68.3854176612075</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3782,31 +3782,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>241.0142888776591</v>
+        <v>198.2885478252619</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
     </row>
     <row r="42">
@@ -3816,28 +3816,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>87.11878864677688</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -3876,16 +3876,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>102.4757780034416</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,10 +3986,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G44" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>38.87161743162455</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="45">
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4071,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4110,19 +4110,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X45" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>44.13217237922859</v>
+        <v>34.86547882798917</v>
       </c>
     </row>
     <row r="46">
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4195,13 +4195,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.790450447682255</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C2" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D2" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E2" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F2" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K2" t="n">
-        <v>47.22142444577459</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L2" t="n">
-        <v>90.91227510121089</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M2" t="n">
-        <v>132.8378388614781</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N2" t="n">
-        <v>132.8378388614781</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O2" t="n">
-        <v>132.8378388614781</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R2" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S2" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T2" t="n">
-        <v>137.2644294849704</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U2" t="n">
-        <v>137.2644294849704</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V2" t="n">
-        <v>92.68647758675968</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="W2" t="n">
-        <v>92.68647758675968</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="X2" t="n">
-        <v>48.10852568854899</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42.79483382228227</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="C3" t="n">
-        <v>42.79483382228227</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="D3" t="n">
-        <v>42.79483382228227</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="E3" t="n">
-        <v>42.79483382228227</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="F3" t="n">
-        <v>42.79483382228227</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="G3" t="n">
-        <v>42.79483382228227</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="H3" t="n">
-        <v>42.79483382228227</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="I3" t="n">
-        <v>3.530573790338288</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K3" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L3" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M3" t="n">
-        <v>3.530573790338288</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N3" t="n">
-        <v>45.45613755060546</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O3" t="n">
-        <v>89.14698820604177</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8378388614781</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R3" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S3" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T3" t="n">
-        <v>131.9507376187037</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U3" t="n">
-        <v>87.37278572049297</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V3" t="n">
-        <v>87.37278572049297</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W3" t="n">
-        <v>87.37278572049297</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X3" t="n">
-        <v>87.37278572049297</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y3" t="n">
-        <v>42.79483382228227</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.062864280609</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="C4" t="n">
-        <v>138.062864280609</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="D4" t="n">
-        <v>138.062864280609</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="E4" t="n">
-        <v>138.062864280609</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="F4" t="n">
-        <v>138.062864280609</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="G4" t="n">
-        <v>137.2644294849704</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="H4" t="n">
-        <v>92.68647758675968</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="I4" t="n">
-        <v>48.10852568854899</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="J4" t="n">
-        <v>3.530573790338288</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P4" t="n">
-        <v>138.062864280609</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.062864280609</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="R4" t="n">
-        <v>138.062864280609</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="S4" t="n">
-        <v>138.062864280609</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="T4" t="n">
-        <v>138.062864280609</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="U4" t="n">
-        <v>138.062864280609</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="V4" t="n">
-        <v>138.062864280609</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="W4" t="n">
-        <v>138.062864280609</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="X4" t="n">
-        <v>138.062864280609</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="Y4" t="n">
-        <v>138.062864280609</v>
+        <v>25.66114634470771</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>176.5286895169144</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="C5" t="n">
-        <v>176.5286895169144</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="D5" t="n">
-        <v>176.5286895169144</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="E5" t="n">
-        <v>176.5286895169144</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="F5" t="n">
-        <v>149.3344187320537</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G5" t="n">
-        <v>104.756466833843</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H5" t="n">
-        <v>60.17851493563234</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I5" t="n">
-        <v>15.60056303742164</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K5" t="n">
-        <v>3.530573790338288</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L5" t="n">
-        <v>47.22142444577459</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M5" t="n">
-        <v>90.91227510121089</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N5" t="n">
-        <v>134.6031257566472</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O5" t="n">
-        <v>176.5286895169144</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q5" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R5" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S5" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T5" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U5" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V5" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W5" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X5" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y5" t="n">
-        <v>176.5286895169144</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C6" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D6" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E6" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F6" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G6" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H6" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I6" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K6" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L6" t="n">
-        <v>45.45613755060546</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M6" t="n">
-        <v>45.45613755060546</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N6" t="n">
-        <v>45.45613755060546</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="O6" t="n">
-        <v>89.14698820604177</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P6" t="n">
-        <v>132.8378388614781</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R6" t="n">
-        <v>131.9507376187037</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S6" t="n">
-        <v>87.37278572049297</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="T6" t="n">
-        <v>42.79483382228227</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="U6" t="n">
-        <v>3.530573790338288</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="V6" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W6" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X6" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="C7" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="D7" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="E7" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="F7" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="G7" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="H7" t="n">
-        <v>93.48491238239833</v>
+        <v>105.6285745504463</v>
       </c>
       <c r="I7" t="n">
-        <v>48.90696048418764</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="J7" t="n">
-        <v>4.329008585976936</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P7" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q7" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R7" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S7" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T7" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U7" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V7" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W7" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X7" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y7" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87.37278572049297</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C8" t="n">
-        <v>42.79483382228227</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D8" t="n">
-        <v>3.530573790338288</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E8" t="n">
-        <v>3.530573790338288</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="F8" t="n">
-        <v>3.530573790338288</v>
+        <v>135.1878417126385</v>
       </c>
       <c r="G8" t="n">
-        <v>3.530573790338288</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="H8" t="n">
-        <v>3.530573790338288</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="I8" t="n">
-        <v>3.530573790338288</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K8" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L8" t="n">
-        <v>47.22142444577459</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M8" t="n">
-        <v>90.91227510121089</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N8" t="n">
-        <v>132.8378388614781</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O8" t="n">
-        <v>176.5286895169144</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q8" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R8" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S8" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T8" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U8" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V8" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W8" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X8" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y8" t="n">
-        <v>131.9507376187037</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C9" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D9" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E9" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="F9" t="n">
-        <v>138.0185621377561</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="G9" t="n">
-        <v>93.44061023954541</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="H9" t="n">
-        <v>48.8626583413347</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="I9" t="n">
-        <v>4.284706443124001</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K9" t="n">
-        <v>47.22142444577459</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L9" t="n">
-        <v>47.22142444577459</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M9" t="n">
-        <v>90.91227510121089</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N9" t="n">
-        <v>90.91227510121089</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="O9" t="n">
-        <v>90.91227510121089</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="P9" t="n">
-        <v>132.8378388614781</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R9" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S9" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T9" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U9" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V9" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W9" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X9" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y9" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="C10" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="D10" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="E10" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="F10" t="n">
-        <v>3.530573790338288</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="G10" t="n">
-        <v>3.530573790338288</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="H10" t="n">
-        <v>3.530573790338288</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I10" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J10" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P10" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q10" t="n">
-        <v>137.2644294849704</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R10" t="n">
-        <v>92.68647758675968</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S10" t="n">
-        <v>48.10852568854899</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T10" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U10" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V10" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W10" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X10" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>176.5286895169144</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C11" t="n">
-        <v>176.5286895169144</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D11" t="n">
-        <v>176.5286895169144</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E11" t="n">
-        <v>176.5286895169144</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F11" t="n">
-        <v>131.9507376187037</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G11" t="n">
-        <v>87.37278572049297</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H11" t="n">
-        <v>42.79483382228227</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K11" t="n">
-        <v>45.45613755060546</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L11" t="n">
-        <v>89.14698820604177</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M11" t="n">
-        <v>89.14698820604177</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N11" t="n">
-        <v>89.14698820604177</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O11" t="n">
-        <v>132.8378388614781</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.5286895169144</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R11" t="n">
-        <v>176.5286895169144</v>
+        <v>108.260178376266</v>
       </c>
       <c r="S11" t="n">
-        <v>176.5286895169144</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="T11" t="n">
-        <v>176.5286895169144</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="U11" t="n">
-        <v>176.5286895169144</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V11" t="n">
-        <v>176.5286895169144</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W11" t="n">
-        <v>176.5286895169144</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X11" t="n">
-        <v>176.5286895169144</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y11" t="n">
-        <v>176.5286895169144</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.530573790338288</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C12" t="n">
-        <v>3.530573790338288</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D12" t="n">
-        <v>3.530573790338288</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="E12" t="n">
-        <v>3.530573790338288</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="F12" t="n">
-        <v>3.530573790338288</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="G12" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H12" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K12" t="n">
-        <v>47.22142444577459</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L12" t="n">
-        <v>90.91227510121089</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M12" t="n">
-        <v>132.8378388614781</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N12" t="n">
-        <v>132.8378388614781</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O12" t="n">
-        <v>132.8378388614781</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P12" t="n">
-        <v>132.8378388614781</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R12" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S12" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T12" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U12" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V12" t="n">
-        <v>137.2644294849704</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W12" t="n">
-        <v>92.68647758675968</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X12" t="n">
-        <v>48.10852568854899</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.530573790338288</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>70.60296187630945</v>
+        <v>13.245045875396</v>
       </c>
       <c r="C13" t="n">
-        <v>70.60296187630945</v>
+        <v>13.245045875396</v>
       </c>
       <c r="D13" t="n">
-        <v>70.60296187630945</v>
+        <v>13.245045875396</v>
       </c>
       <c r="E13" t="n">
-        <v>70.60296187630945</v>
+        <v>13.245045875396</v>
       </c>
       <c r="F13" t="n">
-        <v>70.60296187630945</v>
+        <v>13.245045875396</v>
       </c>
       <c r="G13" t="n">
-        <v>70.60296187630945</v>
+        <v>13.245045875396</v>
       </c>
       <c r="H13" t="n">
-        <v>70.60296187630945</v>
+        <v>13.245045875396</v>
       </c>
       <c r="I13" t="n">
-        <v>70.60296187630945</v>
+        <v>13.245045875396</v>
       </c>
       <c r="J13" t="n">
-        <v>26.02500997809875</v>
+        <v>13.245045875396</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P13" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.062864280609</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="R13" t="n">
-        <v>138.062864280609</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="S13" t="n">
-        <v>138.062864280609</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="T13" t="n">
-        <v>138.062864280609</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="U13" t="n">
-        <v>93.48491238239833</v>
+        <v>13.245045875396</v>
       </c>
       <c r="V13" t="n">
-        <v>93.48491238239833</v>
+        <v>13.245045875396</v>
       </c>
       <c r="W13" t="n">
-        <v>93.48491238239833</v>
+        <v>13.245045875396</v>
       </c>
       <c r="X13" t="n">
-        <v>93.48491238239833</v>
+        <v>13.245045875396</v>
       </c>
       <c r="Y13" t="n">
-        <v>70.60296187630945</v>
+        <v>13.245045875396</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>131.9507376187037</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="C14" t="n">
-        <v>131.9507376187037</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="D14" t="n">
-        <v>131.9507376187037</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="E14" t="n">
-        <v>92.68647758675968</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="F14" t="n">
-        <v>48.10852568854899</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="G14" t="n">
-        <v>3.530573790338288</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="H14" t="n">
-        <v>3.530573790338288</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="I14" t="n">
-        <v>3.530573790338288</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K14" t="n">
-        <v>47.22142444577459</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L14" t="n">
-        <v>89.14698820604177</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M14" t="n">
-        <v>132.8378388614781</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N14" t="n">
-        <v>132.8378388614781</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O14" t="n">
-        <v>132.8378388614781</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.5286895169144</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R14" t="n">
-        <v>176.5286895169144</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="S14" t="n">
-        <v>176.5286895169144</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="T14" t="n">
-        <v>176.5286895169144</v>
+        <v>108.260178376266</v>
       </c>
       <c r="U14" t="n">
-        <v>131.9507376187037</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="V14" t="n">
-        <v>131.9507376187037</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="W14" t="n">
-        <v>131.9507376187037</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="X14" t="n">
-        <v>131.9507376187037</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="Y14" t="n">
-        <v>131.9507376187037</v>
+        <v>95.20412760976917</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C15" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D15" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E15" t="n">
-        <v>176.5286895169144</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="F15" t="n">
-        <v>131.9507376187037</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="G15" t="n">
-        <v>87.37278572049297</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="H15" t="n">
-        <v>42.79483382228227</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="I15" t="n">
-        <v>4.284706443124001</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K15" t="n">
-        <v>47.22142444577459</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L15" t="n">
-        <v>47.22142444577459</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M15" t="n">
-        <v>47.22142444577459</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N15" t="n">
-        <v>89.14698820604177</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O15" t="n">
-        <v>89.14698820604177</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P15" t="n">
-        <v>132.8378388614781</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R15" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S15" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T15" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U15" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V15" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W15" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X15" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y15" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="C16" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="D16" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="E16" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="F16" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="G16" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="H16" t="n">
-        <v>3.530573790338288</v>
+        <v>105.6285745504463</v>
       </c>
       <c r="I16" t="n">
-        <v>3.530573790338288</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="J16" t="n">
-        <v>3.530573790338288</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P16" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.48491238239833</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R16" t="n">
-        <v>48.90696048418764</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S16" t="n">
-        <v>4.329008585976936</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T16" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U16" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V16" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W16" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X16" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
     <row r="17">
@@ -5516,34 +5516,34 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K17" t="n">
-        <v>47.22142444577459</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L17" t="n">
-        <v>47.22142444577459</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M17" t="n">
-        <v>47.22142444577459</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N17" t="n">
-        <v>90.91227510121089</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O17" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P17" t="n">
         <v>176.5286895169144</v>
       </c>
       <c r="Q17" t="n">
-        <v>166.4370741486873</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R17" t="n">
-        <v>137.2644294849704</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S17" t="n">
-        <v>92.68647758675968</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T17" t="n">
-        <v>48.10852568854899</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U17" t="n">
         <v>3.530573790338288</v>
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.5286895169144</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C18" t="n">
-        <v>176.5286895169144</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D18" t="n">
-        <v>176.5286895169144</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E18" t="n">
-        <v>131.9507376187037</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F18" t="n">
-        <v>87.37278572049297</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G18" t="n">
-        <v>42.79483382228227</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H18" t="n">
         <v>3.530573790338288</v>
@@ -5598,7 +5598,7 @@
         <v>47.22142444577459</v>
       </c>
       <c r="L18" t="n">
-        <v>89.14698820604177</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M18" t="n">
         <v>132.8378388614781</v>
@@ -5607,7 +5607,7 @@
         <v>132.8378388614781</v>
       </c>
       <c r="O18" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P18" t="n">
         <v>176.5286895169144</v>
@@ -5616,28 +5616,28 @@
         <v>176.5286895169144</v>
       </c>
       <c r="R18" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S18" t="n">
-        <v>176.5286895169144</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T18" t="n">
-        <v>176.5286895169144</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U18" t="n">
-        <v>176.5286895169144</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V18" t="n">
-        <v>176.5286895169144</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W18" t="n">
-        <v>176.5286895169144</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X18" t="n">
-        <v>176.5286895169144</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y18" t="n">
-        <v>176.5286895169144</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.530573790338288</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="C19" t="n">
-        <v>3.530573790338288</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="D19" t="n">
-        <v>3.530573790338288</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="E19" t="n">
-        <v>3.530573790338288</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="F19" t="n">
         <v>3.530573790338288</v>
@@ -5695,28 +5695,28 @@
         <v>138.062864280609</v>
       </c>
       <c r="R19" t="n">
+        <v>138.062864280609</v>
+      </c>
+      <c r="S19" t="n">
         <v>93.48491238239833</v>
       </c>
-      <c r="S19" t="n">
-        <v>48.90696048418764</v>
-      </c>
       <c r="T19" t="n">
-        <v>4.329008585976936</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U19" t="n">
-        <v>4.329008585976936</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V19" t="n">
-        <v>3.530573790338288</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="W19" t="n">
-        <v>3.530573790338288</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="X19" t="n">
-        <v>3.530573790338288</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.530573790338288</v>
+        <v>93.48491238239833</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
         <v>262.7299197543128</v>
@@ -5777,13 +5777,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
         <v>749.627473042513</v>
@@ -5795,7 +5795,7 @@
         <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="C21" t="n">
         <v>19.28114311021272</v>
@@ -5835,46 +5835,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>417.4543050195419</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V21" t="n">
-        <v>728.9050472788936</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W21" t="n">
-        <v>485.4562706347935</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X21" t="n">
-        <v>277.6047704292607</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="Y21" t="n">
-        <v>69.84447166430675</v>
+        <v>51.20856840381305</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6042,46 +6042,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>345.004439675971</v>
+        <v>150.7428168526376</v>
       </c>
       <c r="C24" t="n">
-        <v>345.004439675971</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>196.0700300147197</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V24" t="n">
-        <v>588.4532163200711</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W24" t="n">
-        <v>345.004439675971</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="X24" t="n">
-        <v>345.004439675971</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="Y24" t="n">
-        <v>345.004439675971</v>
+        <v>318.9581538727056</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6248,28 +6248,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
+        <v>710.516763498309</v>
+      </c>
+      <c r="V26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="W26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="X26" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="V26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="W26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="X26" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6279,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20.03527576299844</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6333,22 +6333,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>529.8960702829295</v>
       </c>
       <c r="U27" t="n">
-        <v>259.0600686093459</v>
+        <v>529.8960702829295</v>
       </c>
       <c r="V27" t="n">
-        <v>23.90796037760316</v>
+        <v>529.8960702829295</v>
       </c>
       <c r="W27" t="n">
-        <v>20.03527576299844</v>
+        <v>529.8960702829295</v>
       </c>
       <c r="X27" t="n">
-        <v>20.03527576299844</v>
+        <v>529.8960702829295</v>
       </c>
       <c r="Y27" t="n">
-        <v>20.03527576299844</v>
+        <v>529.8960702829295</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C29" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6516,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>862.8876260635219</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="C30" t="n">
-        <v>726.8416594126254</v>
+        <v>554.4520179977666</v>
       </c>
       <c r="D30" t="n">
-        <v>577.9072497513741</v>
+        <v>554.0836106490112</v>
       </c>
       <c r="E30" t="n">
-        <v>418.6697947459187</v>
+        <v>394.8461556435558</v>
       </c>
       <c r="F30" t="n">
-        <v>272.1352367728036</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G30" t="n">
-        <v>133.4044113554191</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6564,28 +6564,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>862.8876260635219</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W30" t="n">
-        <v>862.8876260635219</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X30" t="n">
-        <v>862.8876260635219</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y30" t="n">
-        <v>862.8876260635219</v>
+        <v>728.9050472788936</v>
       </c>
     </row>
     <row r="31">
@@ -6652,16 +6652,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
         <v>19.28114311021272</v>
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6722,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W32" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="X32" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="U32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="V32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="W32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="X32" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>964.0571555106362</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="C33" t="n">
-        <v>817.1412885554689</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D33" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
         <v>20.03527576299844</v>
@@ -6783,19 +6783,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6810,19 +6810,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>964.0571555106362</v>
+        <v>376.8211856297825</v>
       </c>
       <c r="X33" t="n">
-        <v>964.0571555106362</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="Y33" t="n">
-        <v>964.0571555106362</v>
+        <v>168.9696854242497</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C35" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D35" t="n">
-        <v>477.1596022224361</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E35" t="n">
-        <v>233.7108255783361</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6959,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>944.1299480494607</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>944.1299480494607</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y35" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>605.0715884066004</v>
+        <v>185.0857710682603</v>
       </c>
       <c r="C36" t="n">
-        <v>430.6185591254734</v>
+        <v>185.0857710682603</v>
       </c>
       <c r="D36" t="n">
-        <v>430.6185591254734</v>
+        <v>185.0857710682603</v>
       </c>
       <c r="E36" t="n">
-        <v>271.3811041200179</v>
+        <v>185.0857710682603</v>
       </c>
       <c r="F36" t="n">
-        <v>271.3811041200179</v>
+        <v>185.0857710682603</v>
       </c>
       <c r="G36" t="n">
-        <v>132.6502787026334</v>
+        <v>185.0857710682603</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,13 +7020,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>613.2059550252818</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O36" t="n">
         <v>712.019119383956</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>605.0715884066004</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>605.0715884066004</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V36" t="n">
-        <v>605.0715884066004</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W36" t="n">
-        <v>605.0715884066004</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X36" t="n">
-        <v>605.0715884066004</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="Y36" t="n">
-        <v>605.0715884066004</v>
+        <v>353.3011080883284</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.03527576299844</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>414.0001870389441</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>414.0001870389441</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>254.7627320334886</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>254.7627320334886</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
         <v>20.03527576299844</v>
@@ -7254,19 +7254,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7278,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>929.0463735436861</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>726.8597789024521</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U39" t="n">
-        <v>498.6361606388412</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V39" t="n">
-        <v>263.4840524070985</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W39" t="n">
-        <v>20.03527576299844</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X39" t="n">
-        <v>20.03527576299844</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.03527576299844</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.78106667958005</v>
+        <v>961.308225475175</v>
       </c>
       <c r="R40" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>343.8760884571613</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="C41" t="n">
-        <v>100.4273118130612</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="D41" t="n">
-        <v>100.4273118130612</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="E41" t="n">
-        <v>100.4273118130612</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="F41" t="n">
-        <v>100.4273118130612</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="G41" t="n">
-        <v>100.4273118130612</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729608</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J41" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="K41" t="n">
-        <v>122.2961490211351</v>
+        <v>121.932285387744</v>
       </c>
       <c r="L41" t="n">
-        <v>302.3720006057937</v>
+        <v>284.1788189362417</v>
       </c>
       <c r="M41" t="n">
-        <v>519.3476278686978</v>
+        <v>501.1544461991459</v>
       </c>
       <c r="N41" t="n">
-        <v>725.2021500759372</v>
+        <v>707.0089684063852</v>
       </c>
       <c r="O41" t="n">
-        <v>874.3971002185853</v>
+        <v>856.2039185490332</v>
       </c>
       <c r="P41" t="n">
-        <v>964.0571555106362</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="R41" t="n">
-        <v>812.6742080953335</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="S41" t="n">
-        <v>812.6742080953335</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="T41" t="n">
-        <v>587.3248651012614</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="U41" t="n">
-        <v>587.3248651012614</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="V41" t="n">
-        <v>343.8760884571613</v>
+        <v>735.4808960230977</v>
       </c>
       <c r="W41" t="n">
-        <v>343.8760884571613</v>
+        <v>496.626357174339</v>
       </c>
       <c r="X41" t="n">
-        <v>343.8760884571613</v>
+        <v>257.7718183255803</v>
       </c>
       <c r="Y41" t="n">
-        <v>343.8760884571613</v>
+        <v>18.91727947682168</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>756.2056553051034</v>
+        <v>19.6714121296074</v>
       </c>
       <c r="C42" t="n">
-        <v>756.2056553051034</v>
+        <v>19.6714121296074</v>
       </c>
       <c r="D42" t="n">
-        <v>668.2068788942177</v>
+        <v>19.6714121296074</v>
       </c>
       <c r="E42" t="n">
-        <v>508.9694238887622</v>
+        <v>19.6714121296074</v>
       </c>
       <c r="F42" t="n">
-        <v>362.4348659156472</v>
+        <v>19.6714121296074</v>
       </c>
       <c r="G42" t="n">
-        <v>223.7040404982626</v>
+        <v>19.6714121296074</v>
       </c>
       <c r="H42" t="n">
-        <v>110.334904905842</v>
+        <v>19.6714121296074</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.6714121296074</v>
       </c>
       <c r="J42" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>144.2748395346591</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>374.2379454030082</v>
       </c>
       <c r="M42" t="n">
-        <v>473.4149733950735</v>
+        <v>608.3392789286765</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>842.4406124543449</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="Q42" t="n">
-        <v>964.0571555106362</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>842.3530869689209</v>
       </c>
       <c r="W42" t="n">
-        <v>964.0571555106362</v>
+        <v>603.4985481201622</v>
       </c>
       <c r="X42" t="n">
-        <v>756.2056553051034</v>
+        <v>395.6470479146294</v>
       </c>
       <c r="Y42" t="n">
-        <v>756.2056553051034</v>
+        <v>187.8867491496754</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I43" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J43" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="K43" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="L43" t="n">
-        <v>46.5952681179257</v>
+        <v>46.23140448453466</v>
       </c>
       <c r="M43" t="n">
-        <v>85.78330631014788</v>
+        <v>85.41944267675684</v>
       </c>
       <c r="N43" t="n">
-        <v>129.4741569655842</v>
+        <v>129.1102933321932</v>
       </c>
       <c r="O43" t="n">
-        <v>153.8134336004835</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="P43" t="n">
-        <v>153.8134336004835</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.8134336004835</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="R43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>48.10852568854899</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C44" t="n">
-        <v>48.10852568854899</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D44" t="n">
-        <v>48.10852568854899</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E44" t="n">
-        <v>48.10852568854899</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F44" t="n">
-        <v>48.10852568854899</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G44" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H44" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I44" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J44" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K44" t="n">
-        <v>47.22142444577459</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L44" t="n">
-        <v>90.91227510121089</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M44" t="n">
-        <v>134.6031257566472</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N44" t="n">
-        <v>176.5286895169144</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O44" t="n">
-        <v>176.5286895169144</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P44" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q44" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R44" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S44" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T44" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U44" t="n">
-        <v>176.5286895169144</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="V44" t="n">
-        <v>176.5286895169144</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="W44" t="n">
-        <v>176.5286895169144</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="X44" t="n">
-        <v>131.9507376187037</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="Y44" t="n">
-        <v>92.68647758675968</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>42.79483382228227</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C45" t="n">
-        <v>3.530573790338288</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D45" t="n">
-        <v>3.530573790338288</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E45" t="n">
-        <v>3.530573790338288</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F45" t="n">
-        <v>3.530573790338288</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G45" t="n">
-        <v>3.530573790338288</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H45" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I45" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J45" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K45" t="n">
-        <v>3.530573790338288</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L45" t="n">
-        <v>47.22142444577459</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M45" t="n">
-        <v>90.91227510121089</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N45" t="n">
-        <v>132.8378388614781</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O45" t="n">
-        <v>132.8378388614781</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="P45" t="n">
-        <v>132.8378388614781</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q45" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R45" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S45" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T45" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U45" t="n">
-        <v>176.5286895169144</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V45" t="n">
-        <v>176.5286895169144</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W45" t="n">
-        <v>131.9507376187037</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="X45" t="n">
-        <v>87.37278572049297</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y45" t="n">
-        <v>42.79483382228227</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.99639902664363</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="C46" t="n">
-        <v>41.99639902664363</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="D46" t="n">
-        <v>41.99639902664363</v>
+        <v>13.245045875396</v>
       </c>
       <c r="E46" t="n">
-        <v>41.99639902664363</v>
+        <v>13.245045875396</v>
       </c>
       <c r="F46" t="n">
-        <v>41.99639902664363</v>
+        <v>13.245045875396</v>
       </c>
       <c r="G46" t="n">
-        <v>41.99639902664363</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H46" t="n">
-        <v>41.99639902664363</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I46" t="n">
-        <v>41.99639902664363</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J46" t="n">
-        <v>41.99639902664363</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K46" t="n">
-        <v>41.99639902664363</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L46" t="n">
-        <v>69.3105240343566</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M46" t="n">
-        <v>108.4985622265788</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N46" t="n">
-        <v>152.1894128820151</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O46" t="n">
-        <v>176.5286895169144</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P46" t="n">
-        <v>176.5286895169144</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q46" t="n">
-        <v>176.5286895169144</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R46" t="n">
-        <v>176.5286895169144</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S46" t="n">
-        <v>131.9507376187037</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="T46" t="n">
-        <v>131.9507376187037</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="U46" t="n">
-        <v>131.9507376187037</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="V46" t="n">
-        <v>131.9507376187037</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="W46" t="n">
-        <v>87.37278572049297</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="X46" t="n">
-        <v>42.79483382228227</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.99639902664363</v>
+        <v>53.22875997826529</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>264.2220234242092</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>279.8985873492159</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>272.6952875305729</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P2" t="n">
-        <v>275.3651681344982</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8064,19 +8064,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N3" t="n">
-        <v>173.6907663866335</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O3" t="n">
-        <v>186.728416823673</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>178.1065797935588</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1139464652501</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8146,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L5" t="n">
-        <v>279.8985873492159</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M5" t="n">
-        <v>274.4784056065013</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>273.5452359758195</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>272.4472657249869</v>
+        <v>268.0827398194126</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,22 +8298,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>180.9034340831744</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>186.728416823673</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P6" t="n">
-        <v>178.1065797935588</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1139464652501</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8383,7 +8383,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>171.8177168444618</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8456,19 +8456,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>279.8985873492159</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M8" t="n">
-        <v>274.4784056065013</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N8" t="n">
-        <v>271.7621178998911</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O8" t="n">
-        <v>274.2303838009153</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>181.9736113535876</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M9" t="n">
-        <v>186.2662063012469</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
@@ -8547,10 +8547,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>176.3234617176304</v>
+        <v>171.9589358120561</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8620,7 +8620,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>171.8177168444618</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>262.4389053482807</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>279.8985873492159</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>267.3975919943167</v>
       </c>
       <c r="O11" t="n">
-        <v>274.2303838009153</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>275.3651681344982</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>181.9736113535876</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L12" t="n">
-        <v>182.6865521591028</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M12" t="n">
-        <v>184.4830882253185</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>180.5807728421703</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q12" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8857,7 +8857,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>171.8177168444618</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>264.2220234242092</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L14" t="n">
-        <v>278.1154692732874</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M14" t="n">
-        <v>274.4784056065013</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N14" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P14" t="n">
-        <v>275.3651681344982</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>181.9736113535876</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>176.5389081776</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>173.6907663866335</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>178.1065797935588</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q15" t="n">
-        <v>184.1139464652501</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9094,7 +9094,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>171.8177168444618</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,22 +9164,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>264.2220234242092</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N17" t="n">
         <v>273.5452359758195</v>
       </c>
       <c r="O17" t="n">
-        <v>272.4472657249869</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P17" t="n">
-        <v>275.3651681344982</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9246,19 +9246,19 @@
         <v>181.9736113535876</v>
       </c>
       <c r="L18" t="n">
-        <v>180.9034340831744</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M18" t="n">
-        <v>186.2662063012469</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P18" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9483,10 +9483,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9498,7 +9498,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9732,7 +9732,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>197.6503338623806</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10431,13 +10431,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,16 +10668,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>242.4075215744184</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10902,22 +10902,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>399.6518023927121</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11145,19 +11145,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>241.9453110519923</v>
+        <v>378.6000273822893</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>367.8077055436044</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>247.0642862492316</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,22 +11297,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>264.2220234242092</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L44" t="n">
-        <v>279.8985873492159</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M44" t="n">
-        <v>274.4784056065013</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N44" t="n">
-        <v>271.7621178998911</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>268.0827398194126</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L45" t="n">
-        <v>182.6865521591028</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M45" t="n">
-        <v>186.2662063012469</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>173.6907663866335</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>171.9589358120561</v>
       </c>
       <c r="Q45" t="n">
-        <v>184.1139464652501</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11464,7 +11464,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>171.8177168444618</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22598,22 +22598,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>184.2242321325068</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>283.6200860909063</v>
+        <v>292.8867796421457</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X2" t="n">
-        <v>325.5989282992405</v>
+        <v>330.1472237166284</v>
       </c>
       <c r="Y2" t="n">
-        <v>342.105766276825</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="3">
@@ -22623,7 +22623,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>126.9493066880268</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22641,13 +22641,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>78.11655673476514</v>
       </c>
       <c r="I3" t="n">
-        <v>50.52501541979053</v>
+        <v>49.81275588957449</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22677,10 +22677,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22692,7 +22692,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>161.5505233980758</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="4">
@@ -22717,19 +22717,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2005289107765</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>118.095000128211</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,16 +22744,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>199.4461012748567</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22787,25 +22787,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>315.0991646588424</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>342.3464931104212</v>
       </c>
       <c r="F5" t="n">
-        <v>379.9537176646994</v>
+        <v>372.0105669137222</v>
       </c>
       <c r="G5" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22850,7 +22850,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="6">
@@ -22908,19 +22908,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>127.5509987246092</v>
+        <v>136.8176922758487</v>
       </c>
       <c r="T6" t="n">
-        <v>156.032556315593</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U6" t="n">
-        <v>187.0697646493503</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22957,16 +22957,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>118.095000128211</v>
+        <v>134.9352350102176</v>
       </c>
       <c r="I7" t="n">
-        <v>111.3183025480297</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J7" t="n">
-        <v>49.22700773744418</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K7" t="n">
-        <v>21.47904137820059</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23018,31 +23018,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>338.601669284252</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>321.1407193917789</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>315.8114241890584</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>383.9598562683348</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>375.7188605532945</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>299.8909251539266</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>170.8920126085653</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23087,7 +23087,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>342.105766276825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23109,16 +23109,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>106.9441862880172</v>
+        <v>105.4853354315433</v>
       </c>
       <c r="G9" t="n">
-        <v>93.21134478398204</v>
+        <v>97.75964020137005</v>
       </c>
       <c r="H9" t="n">
-        <v>68.10327185726787</v>
+        <v>78.11655673476514</v>
       </c>
       <c r="I9" t="n">
-        <v>45.26446047218649</v>
+        <v>49.81275588957449</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23188,16 +23188,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>135.443495661667</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>128.4071023966182</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -23221,16 +23221,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>85.37159280401211</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>183.8134170490529</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23267,16 +23267,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>362.7438733624829</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>171.6042721387814</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23300,19 +23300,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>184.145289972801</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23340,16 +23340,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>107.8611886027982</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>118.0612034935604</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>105.4853354315433</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>102.4780383352215</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
@@ -23394,16 +23394,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>193.9289697178007</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>207.562810781691</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>161.6408128242489</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>161.5505233980758</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23437,10 +23437,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>12.29193946461858</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,19 +23458,19 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>242.1868569772623</v>
+        <v>246.7351523946503</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>195.9315223510668</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23498,16 +23498,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>315.0991646588424</v>
       </c>
       <c r="E14" t="n">
-        <v>343.0587526406372</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>362.7438733624829</v>
+        <v>367.2921687798708</v>
       </c>
       <c r="G14" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23516,7 +23516,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,7 +23537,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23546,10 +23546,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U14" t="n">
-        <v>207.2134805286079</v>
+        <v>238.4201626490047</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23580,19 +23580,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>118.0612034935604</v>
       </c>
       <c r="F15" t="n">
-        <v>100.9370400141553</v>
+        <v>105.4853354315433</v>
       </c>
       <c r="G15" t="n">
-        <v>93.21134478398204</v>
+        <v>97.75964020137005</v>
       </c>
       <c r="H15" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>51.27160674604839</v>
+        <v>55.27774534968376</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23668,16 +23668,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>162.2271725074396</v>
+        <v>134.9352350102176</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,16 +23695,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>227.1551389805992</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23774,10 +23774,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>120.9881997240699</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S17" t="n">
         <v>164.8878972070167</v>
@@ -23786,7 +23786,7 @@
         <v>178.9636771849028</v>
       </c>
       <c r="U17" t="n">
-        <v>207.2134805286079</v>
+        <v>212.474035476212</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23817,16 +23817,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>113.5129080761724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>73.36382680487192</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -23856,16 +23856,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>132.8115536722133</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>135.6998078027087</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>123.1146487193992</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>144.630597575249</v>
       </c>
       <c r="G19" t="n">
         <v>167.9909793584588</v>
@@ -23935,19 +23935,19 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>179.8844256577437</v>
       </c>
       <c r="T19" t="n">
-        <v>183.8134170490529</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>251.3471928761457</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23969,7 +23969,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -24017,7 +24017,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24026,7 +24026,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>125.4575720412377</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>108.226679839754</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24045,10 +24045,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>116.4754883813142</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>141.1003479476514</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24178,7 +24178,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24206,13 +24206,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>162.9782053421103</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24266,13 +24266,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,19 +24282,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>42.56144198331512</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>128.4398861395808</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24306,7 +24306,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,7 +24333,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24342,16 +24342,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24367,7 +24367,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24424,7 +24424,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24488,25 +24488,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>149.0074258151476</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24534,16 +24534,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24573,16 +24573,16 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>42.18625957587292</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>247.8610253924609</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24643,7 +24643,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
@@ -24658,10 +24658,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1127189901543</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,22 +24677,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>152.9875061275656</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F29" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24743,7 +24743,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24759,10 +24759,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>38.02299200392821</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.080342289371</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24774,13 +24774,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24816,7 +24816,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24892,7 +24892,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24932,7 +24932,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24962,25 +24962,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>128.6853625704253</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24996,25 +24996,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25050,16 +25050,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>129.0733422092745</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25078,7 +25078,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25132,7 +25132,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25151,28 +25151,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25199,13 +25199,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>130.141182554586</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25230,31 +25230,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>38.23208673570228</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,19 +25278,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>116.6100225183071</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25372,7 +25372,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25403,7 +25403,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25412,7 +25412,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,28 +25433,28 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>39.0602672643945</v>
+        <v>160.9567151697601</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25470,25 +25470,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>106.5954125433369</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25518,19 +25518,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>137.0224969565572</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25588,13 +25588,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>156.0574714863295</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25628,7 +25628,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25643,13 +25643,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>271.0893844545596</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,31 +25670,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>129.463710644873</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>112.774975257142</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>133.265107218198</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>149.7719451957825</v>
       </c>
     </row>
     <row r="42">
@@ -25704,28 +25704,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>60.32627691786188</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25764,16 +25764,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>130.3248091459836</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>15.22898970064855</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25831,10 +25831,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>338.601669284252</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,10 +25874,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>367.2921687798708</v>
       </c>
       <c r="G44" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25919,19 +25919,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>216.4801740798473</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>288.1683815082943</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>347.366321224429</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="45">
@@ -25944,7 +25944,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>133.8368815566912</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25959,7 +25959,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>72.65156727465587</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25998,19 +25998,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>207.562810781691</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X45" t="n">
-        <v>161.6408128242489</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>161.5505233980758</v>
+        <v>170.8172169493152</v>
       </c>
     </row>
     <row r="46">
@@ -26026,7 +26026,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>109.0315960563718</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>158.0134269971945</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26071,7 +26071,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>179.8844256577437</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26083,13 +26083,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>242.3908259573624</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>181.5774830098086</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>217.7942029044125</v>
+        <v>179.0007763902542</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>358671.2447770133</v>
+        <v>355279.4796042948</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>358671.2447770133</v>
+        <v>355279.4796042948</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>358671.2447770134</v>
+        <v>355279.4796042946</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358671.2447770133</v>
+        <v>355279.4796042946</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>358671.2447770133</v>
+        <v>355279.4796042948</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498541.5625390692</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498541.5625390692</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498541.5625390693</v>
+        <v>495310.3319091871</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>358671.2447770134</v>
+        <v>355279.4796042948</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65754.15294315931</v>
+        <v>65132.53968261262</v>
       </c>
       <c r="C2" t="n">
-        <v>65754.15294315931</v>
+        <v>65132.53968261259</v>
       </c>
       <c r="D2" t="n">
-        <v>65754.15294315931</v>
+        <v>65132.5396826126</v>
       </c>
       <c r="E2" t="n">
-        <v>65754.15294315932</v>
+        <v>65132.5396826126</v>
       </c>
       <c r="F2" t="n">
-        <v>65754.15294315932</v>
+        <v>65132.53968261262</v>
       </c>
       <c r="G2" t="n">
         <v>65754.15294315931</v>
       </c>
       <c r="H2" t="n">
-        <v>91388.36989223279</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="I2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="J2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="K2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223279</v>
       </c>
       <c r="L2" t="n">
-        <v>91388.36989223283</v>
+        <v>91388.36989223279</v>
       </c>
       <c r="M2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="N2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="O2" t="n">
-        <v>91388.36989223283</v>
+        <v>90796.17800832073</v>
       </c>
       <c r="P2" t="n">
-        <v>65754.15294315931</v>
+        <v>65132.5396826126</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>13265.46759908291</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1246.619549474791</v>
       </c>
       <c r="H3" t="n">
         <v>53120.56697032503</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>10356.88390380382</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4716.463484564711</v>
+        <v>5965.632368449411</v>
       </c>
       <c r="C4" t="n">
-        <v>4716.463484564711</v>
+        <v>5965.632368449412</v>
       </c>
       <c r="D4" t="n">
-        <v>4716.463484564711</v>
+        <v>5965.632368449412</v>
       </c>
       <c r="E4" t="n">
-        <v>4716.46348456471</v>
+        <v>5965.632368449411</v>
       </c>
       <c r="F4" t="n">
-        <v>4716.463484564711</v>
+        <v>5965.632368449412</v>
       </c>
       <c r="G4" t="n">
-        <v>4716.463484564711</v>
+        <v>6026.749513840837</v>
       </c>
       <c r="H4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="I4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="J4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="K4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="L4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="M4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="N4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="O4" t="n">
-        <v>6716.703256796494</v>
+        <v>8488.886639836435</v>
       </c>
       <c r="P4" t="n">
-        <v>4716.463484564711</v>
+        <v>5965.632368449411</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="G5" t="n">
         <v>2683.236080657098</v>
@@ -26506,10 +26506,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14653.66876376167</v>
+        <v>14377.13240238448</v>
       </c>
       <c r="P5" t="n">
-        <v>2683.236080657098</v>
+        <v>2406.699719279908</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9937.147373693275</v>
+        <v>9867.139995800382</v>
       </c>
       <c r="C6" t="n">
-        <v>24726.8533779375</v>
+        <v>23132.60759488327</v>
       </c>
       <c r="D6" t="n">
-        <v>24726.8533779375</v>
+        <v>23132.60759488328</v>
       </c>
       <c r="E6" t="n">
-        <v>58354.45337793751</v>
+        <v>56760.20759488328</v>
       </c>
       <c r="F6" t="n">
-        <v>58354.45337793751</v>
+        <v>56760.20759488329</v>
       </c>
       <c r="G6" t="n">
-        <v>58354.4533779375</v>
+        <v>55797.54779918658</v>
       </c>
       <c r="H6" t="n">
-        <v>16897.43090134959</v>
+        <v>15067.02308880373</v>
       </c>
       <c r="I6" t="n">
-        <v>70017.99787167466</v>
+        <v>68187.59005912875</v>
       </c>
       <c r="J6" t="n">
-        <v>58471.07976168377</v>
+        <v>57830.70615532492</v>
       </c>
       <c r="K6" t="n">
-        <v>70017.99787167464</v>
+        <v>68187.59005912872</v>
       </c>
       <c r="L6" t="n">
-        <v>70017.99787167467</v>
+        <v>68187.59005912872</v>
       </c>
       <c r="M6" t="n">
-        <v>70017.99787167466</v>
+        <v>68187.59005912875</v>
       </c>
       <c r="N6" t="n">
-        <v>70017.99787167464</v>
+        <v>68187.59005912875</v>
       </c>
       <c r="O6" t="n">
-        <v>70017.99787167467</v>
+        <v>67930.15896609981</v>
       </c>
       <c r="P6" t="n">
-        <v>58354.4533779375</v>
+        <v>56760.20759488328</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G4" t="n">
         <v>44.13217237922859</v>
@@ -26826,10 +26826,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>241.0142888776591</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="P4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.548295417388005</v>
       </c>
       <c r="H4" t="n">
         <v>196.8821164984305</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.548295417388005</v>
       </c>
       <c r="P4" t="n">
         <v>196.8821164984305</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>42.34905430330019</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P2" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34784,19 +34784,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N3" t="n">
-        <v>42.34905430330018</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34866,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L5" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>42.34905430330016</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,22 +35018,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P6" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,7 +35103,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35176,19 +35176,19 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M8" t="n">
-        <v>44.13217237922859</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N8" t="n">
-        <v>42.34905430330019</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M9" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>42.34905430330019</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35340,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L12" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M12" t="n">
-        <v>42.34905430330019</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,7 +35577,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L14" t="n">
-        <v>42.34905430330018</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M14" t="n">
-        <v>44.13217237922859</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35814,7 +35814,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>42.34905430330018</v>
+      </c>
+      <c r="M17" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="O17" t="n">
-        <v>42.34905430330019</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>44.13217237922859</v>
       </c>
       <c r="L18" t="n">
-        <v>42.34905430330018</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M18" t="n">
+        <v>42.34905430330019</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
       <c r="P18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36203,10 +36203,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36218,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36452,7 +36452,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,16 +36911,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37151,13 +37151,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N33" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37166,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37388,16 +37388,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>99.8112771299739</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>181.8947995804632</v>
+        <v>163.8853874227249</v>
       </c>
       <c r="M41" t="n">
         <v>219.1673002655598</v>
@@ -37792,7 +37792,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37865,19 +37865,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>99.81127712997396</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>104.4680418047872</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,22 +38017,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L44" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M44" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>42.34905430330016</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L45" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M45" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>42.34905430330019</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="Q45" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376546.9572276621</v>
+        <v>373308.7577998815</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221766</v>
+        <v>2114249.189782366</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179436</v>
+        <v>19492207.60956401</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4901774.857294664</v>
+        <v>5117112.456859928</v>
       </c>
     </row>
     <row r="11">
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V2" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -753,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -832,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -856,16 +858,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>24.5704967621155</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -899,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -984,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,16 +1025,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1069,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>27.29193749722201</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1142,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.91618947337665</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1175,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>16.93162886246722</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1221,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1300,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1330,16 +1332,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1370,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1385,13 +1387,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>26.92232807701203</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,25 +1414,25 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1449,25 +1451,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1549,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K13" t="n">
-        <v>9.977552361264268</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1570,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="14">
@@ -1610,13 +1612,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1628,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1652,16 +1654,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T14" t="n">
-        <v>39.58387696184059</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="U14" t="n">
-        <v>12.92549025883184</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1692,22 +1694,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I15" t="n">
-        <v>34.11888750173132</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1734,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1777,19 +1779,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="H16" t="n">
-        <v>27.29193749722201</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1853,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1889,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1968,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>44.13217237922859</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>38.87161743162455</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>44.13217237922859</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>44.13217237922859</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2087,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2123,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>202.2946864288972</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2141,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,28 +2162,28 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>31.60815104066432</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>87.20907807295006</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2223,10 +2225,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2315,76 +2317,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="H23" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="X23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>130.1470570050006</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2409,13 +2411,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>86.54482961934684</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2460,10 +2462,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2479,55 +2481,55 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2552,20 +2554,20 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
@@ -2597,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2609,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V26" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>241.0142888776591</v>
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2646,13 +2648,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,25 +2681,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>157.9784691189487</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2773,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,76 +2791,76 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.809496073036132</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2874,25 +2876,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3647232752677871</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2928,16 +2930,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>170.0166754873252</v>
       </c>
     </row>
     <row r="31">
@@ -3010,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3044,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3092,10 +3094,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3108,16 +3110,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>127.4509717989172</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3129,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>122.6216409516451</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3190,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3226,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3278,55 +3280,55 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
+        <v>3.26531605719669</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H35" t="n">
+      <c r="V35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I35" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>19.72793538656374</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3342,31 +3344,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>50.07657672585884</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>74.00335750079418</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3463,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -3484,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3518,13 +3520,13 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3582,28 +3584,28 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>30.7481046198737</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,19 +3632,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>123.3365499318636</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3700,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -3721,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>130.4655268502615</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3755,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3797,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>198.2885478252619</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>236.4659934602711</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="X41" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3819,7 +3821,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3828,19 +3830,19 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>4.320372589888956</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3876,13 +3878,13 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>102.4757780034416</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3986,19 +3988,19 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>82.46119763909351</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,19 +4024,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>34.86547882798917</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4071,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4110,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>34.86547882798917</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4138,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4195,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L2" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M2" t="n">
-        <v>40.77139327069581</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N2" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O2" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S2" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T2" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U2" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V2" t="n">
-        <v>123.1178524655551</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W2" t="n">
-        <v>83.13413836268582</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X2" t="n">
-        <v>43.15042425981653</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C3" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D3" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E3" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F3" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G3" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H3" t="n">
-        <v>43.90455691260225</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I3" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M3" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N3" t="n">
-        <v>79.95943146291799</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O3" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P3" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S3" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T3" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y3" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C4" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D4" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E4" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F4" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G4" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H4" t="n">
-        <v>25.66114634470771</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I4" t="n">
-        <v>25.66114634470771</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J4" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>50.47982994280417</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S4" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T4" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U4" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V4" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W4" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X4" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y4" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C5" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D5" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E5" t="n">
-        <v>38.38436553875449</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F5" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="G5" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="H5" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="I5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L5" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M5" t="n">
-        <v>81.54278654139161</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N5" t="n">
-        <v>81.54278654139161</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O5" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y5" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C6" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D6" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E6" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F6" t="n">
-        <v>3.166710156947247</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="G6" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="H6" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L6" t="n">
-        <v>3.166710156947247</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M6" t="n">
-        <v>40.77139327069581</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N6" t="n">
-        <v>40.77139327069581</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O6" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P6" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T6" t="n">
-        <v>83.13413836268582</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U6" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V6" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W6" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X6" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H7" t="n">
-        <v>105.6285745504463</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I7" t="n">
-        <v>65.64486044757699</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J7" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>133.1961881840039</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Q7" t="n">
-        <v>133.1961881840039</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1961881840039</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="S7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>158.3355078473624</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="C8" t="n">
-        <v>158.3355078473624</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="D8" t="n">
-        <v>158.3355078473624</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="E8" t="n">
-        <v>158.3355078473624</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="F8" t="n">
-        <v>135.1878417126385</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="G8" t="n">
-        <v>95.20412760976917</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="H8" t="n">
-        <v>55.22041350689989</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="I8" t="n">
-        <v>15.2366994040306</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L8" t="n">
-        <v>42.35474834916943</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M8" t="n">
-        <v>79.95943146291799</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N8" t="n">
-        <v>119.1474696551402</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O8" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R8" t="n">
-        <v>158.3355078473624</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S8" t="n">
-        <v>158.3355078473624</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="T8" t="n">
-        <v>158.3355078473624</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="U8" t="n">
-        <v>158.3355078473624</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="V8" t="n">
-        <v>158.3355078473624</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="W8" t="n">
-        <v>158.3355078473624</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="X8" t="n">
-        <v>158.3355078473624</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="Y8" t="n">
-        <v>158.3355078473624</v>
+        <v>60.17851493563234</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F9" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G9" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H9" t="n">
-        <v>43.90455691260225</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L9" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M9" t="n">
-        <v>120.7308247336138</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N9" t="n">
-        <v>120.7308247336138</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O9" t="n">
-        <v>120.7308247336138</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P9" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S9" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T9" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C10" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D10" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E10" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F10" t="n">
-        <v>123.1178524655551</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G10" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H10" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>133.1961881840039</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.1961881840039</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1961881840039</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="S10" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T10" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U10" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V10" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W10" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X10" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C11" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="D11" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="E11" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F11" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="G11" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="H11" t="n">
-        <v>3.166710156947247</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="I11" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L11" t="n">
-        <v>42.35474834916943</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M11" t="n">
-        <v>81.54278654139161</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N11" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O11" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R11" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S11" t="n">
-        <v>83.13413836268582</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T11" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U11" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V11" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W11" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X11" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C12" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D12" t="n">
-        <v>118.3517937444931</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="E12" t="n">
-        <v>78.36807964162378</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F12" t="n">
-        <v>38.38436553875449</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="G12" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="H12" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="I12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L12" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M12" t="n">
-        <v>81.54278654139161</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N12" t="n">
-        <v>81.54278654139161</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O12" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P12" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13.245045875396</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="C13" t="n">
-        <v>13.245045875396</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="D13" t="n">
-        <v>13.245045875396</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="E13" t="n">
-        <v>13.245045875396</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="F13" t="n">
-        <v>13.245045875396</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="G13" t="n">
-        <v>13.245045875396</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="H13" t="n">
-        <v>13.245045875396</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="I13" t="n">
-        <v>13.245045875396</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J13" t="n">
-        <v>13.245045875396</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.21247408113457</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R13" t="n">
-        <v>93.21247408113457</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S13" t="n">
-        <v>53.22875997826529</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T13" t="n">
-        <v>53.22875997826529</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U13" t="n">
-        <v>13.245045875396</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V13" t="n">
-        <v>13.245045875396</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W13" t="n">
-        <v>13.245045875396</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X13" t="n">
-        <v>13.245045875396</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.245045875396</v>
+        <v>93.48491238239833</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>95.20412760976917</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C14" t="n">
-        <v>95.20412760976917</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D14" t="n">
-        <v>55.22041350689989</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E14" t="n">
-        <v>55.22041350689989</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F14" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G14" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H14" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I14" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L14" t="n">
-        <v>81.54278654139161</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M14" t="n">
-        <v>119.1474696551402</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N14" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O14" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>148.2438924791353</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R14" t="n">
-        <v>148.2438924791353</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S14" t="n">
-        <v>148.2438924791353</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="T14" t="n">
-        <v>108.260178376266</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U14" t="n">
-        <v>95.20412760976917</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V14" t="n">
-        <v>95.20412760976917</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W14" t="n">
-        <v>95.20412760976917</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X14" t="n">
-        <v>95.20412760976917</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y14" t="n">
-        <v>95.20412760976917</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="C15" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="D15" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="E15" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="F15" t="n">
-        <v>78.36807964162378</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="G15" t="n">
-        <v>38.38436553875449</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="H15" t="n">
-        <v>38.38436553875449</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I15" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L15" t="n">
-        <v>79.95943146291799</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M15" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N15" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="O15" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P15" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T15" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U15" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V15" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W15" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="X15" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Y15" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G16" t="n">
-        <v>133.1961881840039</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="H16" t="n">
-        <v>105.6285745504463</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="I16" t="n">
-        <v>65.64486044757699</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="J16" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>3.530573790338288</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G17" t="n">
-        <v>3.530573790338288</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H17" t="n">
-        <v>3.530573790338288</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>45.45613755060546</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>42.79483382228227</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>90.91227510121089</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>132.8378388614781</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>132.8378388614781</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>176.5286895169144</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>92.68647758675968</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>48.10852568854899</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>3.530573790338288</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>3.530573790338288</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>51.20856840381305</v>
+        <v>756.2968567456824</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>756.2968567456824</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5838,7 +5840,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
         <v>725.4530095217538</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X21" t="n">
-        <v>51.20856840381305</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y21" t="n">
-        <v>51.20856840381305</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6026,13 +6028,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>150.7428168526376</v>
+        <v>419.8840176262463</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>245.4309883451193</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>245.4309883451193</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>245.4309883451193</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>245.4309883451193</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>106.7001629277348</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>106.7001629277348</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6072,46 +6074,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>486.8488635328713</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N24" t="n">
-        <v>725.4530095217538</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V24" t="n">
-        <v>526.7184526376595</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W24" t="n">
-        <v>526.7184526376595</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X24" t="n">
-        <v>526.7184526376595</v>
+        <v>419.8840176262463</v>
       </c>
       <c r="Y24" t="n">
-        <v>318.9581538727056</v>
+        <v>419.8840176262463</v>
       </c>
     </row>
     <row r="25">
@@ -6121,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
         <v>19.28114311021272</v>
@@ -6175,22 +6177,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6245,22 +6247,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
         <v>506.1786963984129</v>
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6306,19 +6308,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>529.8960702829295</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U27" t="n">
-        <v>529.8960702829295</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V27" t="n">
-        <v>529.8960702829295</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W27" t="n">
-        <v>529.8960702829295</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X27" t="n">
-        <v>529.8960702829295</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>529.8960702829295</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6406,19 +6408,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W28" t="n">
         <v>829.5248650203655</v>
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>467.067986854209</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C29" t="n">
-        <v>467.067986854209</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D29" t="n">
-        <v>467.067986854209</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W29" t="n">
-        <v>953.9655401424092</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X29" t="n">
-        <v>710.516763498309</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y29" t="n">
-        <v>710.516763498309</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>728.9050472788936</v>
+        <v>341.0228630172405</v>
       </c>
       <c r="C30" t="n">
-        <v>554.4520179977666</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="D30" t="n">
-        <v>554.0836106490112</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E30" t="n">
-        <v>394.8461556435558</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F30" t="n">
-        <v>248.3115976704407</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6552,10 +6554,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6576,16 +6578,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>728.9050472788936</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X30" t="n">
-        <v>728.9050472788936</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y30" t="n">
-        <v>728.9050472788936</v>
+        <v>341.0228630172405</v>
       </c>
     </row>
     <row r="31">
@@ -6658,10 +6660,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
         <v>19.28114311021272</v>
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6753,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>168.9696854242497</v>
+        <v>481.7099827492369</v>
       </c>
       <c r="C33" t="n">
-        <v>168.9696854242497</v>
+        <v>307.2569534681098</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>307.2569534681098</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>148.0194984626543</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>234.810827406191</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N33" t="n">
         <v>473.4149733950735</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V33" t="n">
-        <v>500.6814290152826</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W33" t="n">
-        <v>376.8211856297825</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X33" t="n">
-        <v>168.9696854242497</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y33" t="n">
-        <v>168.9696854242497</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>718.7806050553886</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="C35" t="n">
-        <v>718.7806050553886</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="D35" t="n">
-        <v>718.7806050553886</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="E35" t="n">
-        <v>718.7806050553886</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="F35" t="n">
-        <v>718.7806050553886</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="G35" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>944.1299480494607</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>944.1299480494607</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T35" t="n">
-        <v>718.7806050553886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U35" t="n">
-        <v>718.7806050553886</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V35" t="n">
-        <v>718.7806050553886</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="W35" t="n">
-        <v>718.7806050553886</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="X35" t="n">
-        <v>718.7806050553886</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="Y35" t="n">
-        <v>718.7806050553886</v>
+        <v>22.57944215788615</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>185.0857710682603</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="C36" t="n">
-        <v>185.0857710682603</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="D36" t="n">
-        <v>185.0857710682603</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E36" t="n">
-        <v>185.0857710682603</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F36" t="n">
-        <v>185.0857710682603</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G36" t="n">
-        <v>185.0857710682603</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,46 +7022,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>712.019119383956</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>353.3011080883284</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W36" t="n">
-        <v>353.3011080883284</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X36" t="n">
-        <v>353.3011080883284</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="Y36" t="n">
-        <v>353.3011080883284</v>
+        <v>627.7355178317791</v>
       </c>
     </row>
     <row r="37">
@@ -7111,25 +7113,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.35113235729608</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C38" t="n">
-        <v>31.35113235729608</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D38" t="n">
-        <v>31.35113235729608</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E38" t="n">
-        <v>31.35113235729608</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="F38" t="n">
-        <v>31.35113235729608</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7199,25 +7201,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
-        <v>366.1018663125844</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U38" t="n">
-        <v>274.7999090013961</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V38" t="n">
-        <v>274.7999090013961</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W38" t="n">
-        <v>274.7999090013961</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X38" t="n">
-        <v>274.7999090013961</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y38" t="n">
-        <v>274.7999090013961</v>
+        <v>577.2332497330343</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>588.4532163200711</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="C39" t="n">
-        <v>414.0001870389441</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D39" t="n">
-        <v>414.0001870389441</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E39" t="n">
-        <v>254.7627320334886</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F39" t="n">
-        <v>254.7627320334886</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>588.4532163200711</v>
+        <v>839.4747818420872</v>
       </c>
       <c r="U39" t="n">
-        <v>588.4532163200711</v>
+        <v>611.2511635784762</v>
       </c>
       <c r="V39" t="n">
-        <v>588.4532163200711</v>
+        <v>376.0990553467335</v>
       </c>
       <c r="W39" t="n">
-        <v>588.4532163200711</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="X39" t="n">
-        <v>588.4532163200711</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="Y39" t="n">
-        <v>588.4532163200711</v>
+        <v>132.6502787026334</v>
       </c>
     </row>
     <row r="40">
@@ -7348,25 +7350,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>961.308225475175</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>961.308225475175</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>961.308225475175</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>961.308225475175</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>961.308225475175</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>961.308225475175</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>961.308225475175</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
         <v>829.5248650203655</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>18.91727947682168</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>18.91727947682168</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>18.91727947682168</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>18.91727947682168</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>18.91727947682168</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>18.91727947682168</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>121.932285387744</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>284.1788189362417</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>501.1544461991459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>707.0089684063852</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>856.2039185490332</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>935.7723584728571</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>935.7723584728571</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>935.7723584728571</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>935.7723584728571</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>935.7723584728571</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>735.4808960230977</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>496.626357174339</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X41" t="n">
-        <v>257.7718183255803</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y41" t="n">
-        <v>18.91727947682168</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.6714121296074</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="C42" t="n">
-        <v>19.6714121296074</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="D42" t="n">
-        <v>19.6714121296074</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="E42" t="n">
-        <v>19.6714121296074</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="F42" t="n">
-        <v>19.6714121296074</v>
+        <v>23.64515582727228</v>
       </c>
       <c r="G42" t="n">
-        <v>19.6714121296074</v>
+        <v>23.64515582727228</v>
       </c>
       <c r="H42" t="n">
-        <v>19.6714121296074</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>19.6714121296074</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.2748395346591</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.2379454030082</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>608.3392789286765</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>842.4406124543449</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>842.3530869689209</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W42" t="n">
-        <v>603.4985481201622</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X42" t="n">
-        <v>395.6470479146294</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y42" t="n">
-        <v>187.8867491496754</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>46.23140448453466</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>85.41944267675684</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>129.1102933321932</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>43.15042425981653</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="C44" t="n">
-        <v>43.15042425981653</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="D44" t="n">
-        <v>43.15042425981653</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="E44" t="n">
-        <v>43.15042425981653</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="F44" t="n">
-        <v>3.166710156947247</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="G44" t="n">
-        <v>3.166710156947247</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="H44" t="n">
-        <v>3.166710156947247</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166710156947247</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>42.35474834916943</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>81.54278654139161</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>81.54278654139161</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>81.54278654139161</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>119.1474696551402</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>158.3355078473624</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>158.3355078473624</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T44" t="n">
-        <v>158.3355078473624</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U44" t="n">
-        <v>123.1178524655551</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="V44" t="n">
-        <v>83.13413836268582</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="W44" t="n">
-        <v>83.13413836268582</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="X44" t="n">
-        <v>83.13413836268582</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="Y44" t="n">
-        <v>43.15042425981653</v>
+        <v>114.6452713866835</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>43.15042425981653</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C45" t="n">
-        <v>43.15042425981653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>43.15042425981653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>43.15042425981653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>43.15042425981653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>43.15042425981653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>42.35474834916943</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>81.54278654139161</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>81.54278654139161</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>81.54278654139161</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O45" t="n">
-        <v>81.54278654139161</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>119.1474696551402</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>118.3517937444931</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>118.3517937444931</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W45" t="n">
-        <v>78.36807964162378</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X45" t="n">
-        <v>78.36807964162378</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y45" t="n">
-        <v>43.15042425981653</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>13.245045875396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>13.245045875396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>13.245045875396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>30.48083516466022</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>69.6688733568824</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>108.8569115491046</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>93.21247408113457</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>93.21247408113457</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>93.21247408113457</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>93.21247408113457</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>93.21247408113457</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>93.21247408113457</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L2" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>268.3307616249986</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N2" t="n">
-        <v>268.9969405584315</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O2" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8064,19 +8066,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>181.7179108838589</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N3" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P3" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L5" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N5" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>268.0827398194126</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,22 +8300,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M6" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>182.180121406285</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P6" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q6" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8383,7 +8385,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L8" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M8" t="n">
-        <v>268.3307616249986</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N8" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P8" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>177.4253159361996</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L9" t="n">
-        <v>178.1382567417148</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M9" t="n">
-        <v>181.7179108838589</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
@@ -8547,10 +8549,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>171.9589358120561</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8620,7 +8622,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L11" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M11" t="n">
-        <v>269.9301101891133</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N11" t="n">
-        <v>267.3975919943167</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O11" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>177.4253159361996</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L12" t="n">
-        <v>178.1382567417148</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>180.5807728421703</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8857,7 +8859,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L14" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
-        <v>268.3307616249986</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O14" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>176.5389081776</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P15" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q15" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9094,7 +9096,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>278.1154692732874</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,22 +9245,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>184.4830882253185</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9486,10 +9488,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9720,10 +9722,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9732,10 +9734,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,13 +9965,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10112,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10200,13 +10202,13 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10428,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>356.2611315939937</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10668,22 +10670,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,22 +10904,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11063,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>399.6518023927121</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11139,19 +11141,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>378.6000273822893</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>367.8077055436044</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>247.0642862492316</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>259.6737280068211</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>275.3502919318278</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>268.0827398194126</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>270.8168727171101</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>177.4253159361996</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>178.1382567417148</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P45" t="n">
-        <v>171.9589358120561</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>179.5656510478621</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11464,7 +11466,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22595,25 +22597,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>170.1484521546208</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V2" t="n">
-        <v>292.8867796421457</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>309.6570917555724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>330.1472237166284</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y2" t="n">
-        <v>346.654061694213</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="3">
@@ -22623,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126.9493066880268</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22641,13 +22643,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>78.11655673476514</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>187.0697646493503</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22692,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>166.0988188154638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22720,13 +22722,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22744,16 +22746,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>199.4461012748567</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22787,22 +22789,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>315.0991646588424</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>342.3464931104212</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>372.0105669137222</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>171.6042721387814</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22850,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22872,16 +22874,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>106.1975949617593</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22911,16 +22913,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>136.8176922758487</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>186.3575051191342</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>193.2167101875847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22957,16 +22959,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>134.9352350102176</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,16 +22983,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>1.930990287424243</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23030,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>383.9598562683348</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>170.8920126085653</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23063,16 +23065,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>206.1642207016641</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23109,19 +23111,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>78.11655673476514</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>187.0697646493503</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23188,16 +23190,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>135.443495661667</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>128.4071023966182</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>122.643295545599</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -23218,16 +23220,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>1.930990287424243</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23258,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>321.1407193917789</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23273,13 +23275,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>312.5524740387551</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,25 +23302,25 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>184.145289972801</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>211.7617759459959</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23337,25 +23339,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>128.5763266090871</v>
       </c>
       <c r="D12" t="n">
-        <v>107.8611886027982</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E12" t="n">
-        <v>118.0612034935604</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>102.4780383352215</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>50.52501541979053</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>157.1788491809093</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23437,10 +23439,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K13" t="n">
-        <v>12.29193946461858</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>246.7351523946503</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>174.4524809728662</v>
       </c>
     </row>
     <row r="14">
@@ -23498,13 +23500,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>315.0991646588424</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>367.2921687798708</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23516,7 +23518,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T14" t="n">
-        <v>183.5119726022908</v>
+        <v>194.2149313470516</v>
       </c>
       <c r="U14" t="n">
-        <v>238.4201626490047</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23580,22 +23582,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>118.0612034935604</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>97.75964020137005</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I15" t="n">
-        <v>55.27774534968376</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23622,7 +23624,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>132.8115536722133</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
@@ -23665,19 +23667,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9909793584588</v>
+        <v>167.2005289107765</v>
       </c>
       <c r="H16" t="n">
-        <v>134.9352350102176</v>
+        <v>118.095000128211</v>
       </c>
       <c r="I16" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J16" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23741,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>212.474035476212</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23856,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>56.02566177341454</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>132.8115536722133</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>156.032556315593</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>181.8092097017462</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>135.6998078027087</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>123.1146487193992</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>144.630597575249</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.9909793584588</v>
@@ -23938,13 +23940,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23975,13 +23977,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>412.0374214579384</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24011,13 +24013,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>6.725383157348119</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24029,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24048,28 +24050,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>141.1003479476514</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>60.23598749168869</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24111,10 +24113,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C22" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24203,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24266,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24282,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>42.56144198331512</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24297,13 +24299,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>2.851803232068235</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24330,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24348,10 +24350,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24367,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24415,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24452,7 +24454,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24497,13 +24499,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V26" t="n">
-        <v>125.4575720412377</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>128.71681180081</v>
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24534,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24567,25 +24569,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>42.18625957587292</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24646,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24661,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,19 +24688,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>179.6356836433646</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24722,10 +24724,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>148.0596218681135</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24737,16 +24739,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24762,25 +24764,25 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.080342289371</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24816,16 +24818,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>35.66602028997914</v>
       </c>
     </row>
     <row r="31">
@@ -24898,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24932,7 +24934,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24962,10 +24964,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24980,10 +24982,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>157.4457150350269</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24996,16 +24998,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>17.6182405944667</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25017,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>129.0733422092745</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25078,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25114,7 +25116,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>86.16204325169439</v>
@@ -25126,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>97.48006257801995</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25166,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>412.0374214579384</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25199,22 +25201,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>130.141182554586</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25230,31 +25232,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>97.36848883877991</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>38.23208673570228</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -25351,7 +25353,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
@@ -25372,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>156.0574714863295</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25406,13 +25408,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>140.1318817691307</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>160.9567151697601</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25470,28 +25472,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>106.5954125433369</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25518,19 +25520,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>76.82817876295805</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25588,7 +25590,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
         <v>86.16204325169439</v>
@@ -25609,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>156.0574714863295</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25643,7 +25645,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25685,16 +25687,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>129.463710644873</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>112.774975257142</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X41" t="n">
-        <v>133.265107218198</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>149.7719451957825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25707,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25716,19 +25718,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>107.9150716466075</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25764,13 +25766,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>130.3248091459836</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>15.22898970064855</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25874,19 +25876,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>367.2921687798708</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>257.0136044766737</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,19 +25912,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>216.4801740798473</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>288.1683815082943</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25944,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>122.6508037197626</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25959,7 +25961,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25998,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>186.3575051191342</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>212.111106199079</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>170.8172169493152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26026,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>109.0315960563718</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>158.0134269971945</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26071,7 +26073,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26083,13 +26085,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>179.0007763902542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355279.4796042948</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355279.4796042948</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355279.4796042946</v>
+        <v>358671.2447770134</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355279.4796042946</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355279.4796042948</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358671.2447770133</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495310.3319091871</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355279.4796042948</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65132.53968261262</v>
+        <v>65754.15294315932</v>
       </c>
       <c r="C2" t="n">
-        <v>65132.53968261259</v>
+        <v>65754.15294315931</v>
       </c>
       <c r="D2" t="n">
-        <v>65132.5396826126</v>
+        <v>65754.15294315934</v>
       </c>
       <c r="E2" t="n">
-        <v>65132.5396826126</v>
+        <v>65754.15294315931</v>
       </c>
       <c r="F2" t="n">
-        <v>65132.53968261262</v>
+        <v>65754.15294315929</v>
       </c>
       <c r="G2" t="n">
-        <v>65754.15294315931</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="H2" t="n">
-        <v>91388.36989223283</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="I2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.36989223279</v>
       </c>
       <c r="J2" t="n">
         <v>91388.3698922328</v>
       </c>
       <c r="K2" t="n">
-        <v>91388.36989223279</v>
+        <v>91388.36989223277</v>
       </c>
       <c r="L2" t="n">
-        <v>91388.36989223279</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="M2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="N2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="O2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="P2" t="n">
         <v>91388.36989223282</v>
-      </c>
-      <c r="N2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="O2" t="n">
-        <v>90796.17800832073</v>
-      </c>
-      <c r="P2" t="n">
-        <v>65132.5396826126</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.46759908291</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1246.619549474791</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380382</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5965.632368449411</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="C4" t="n">
-        <v>5965.632368449412</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="D4" t="n">
-        <v>5965.632368449412</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="E4" t="n">
-        <v>5965.632368449411</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="F4" t="n">
-        <v>5965.632368449412</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="G4" t="n">
-        <v>6026.749513840837</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="H4" t="n">
         <v>8547.111069342402</v>
@@ -26439,10 +26441,10 @@
         <v>8547.111069342402</v>
       </c>
       <c r="J4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="K4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="L4" t="n">
         <v>8547.111069342402</v>
@@ -26451,13 +26453,13 @@
         <v>8547.111069342402</v>
       </c>
       <c r="N4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
-        <v>8488.886639836435</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="P4" t="n">
-        <v>5965.632368449411</v>
+        <v>8547.111069342402</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14377.13240238448</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2406.699719279908</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9867.139995800382</v>
+        <v>8626.861344417164</v>
       </c>
       <c r="C6" t="n">
-        <v>23132.60759488327</v>
+        <v>23416.56734866137</v>
       </c>
       <c r="D6" t="n">
-        <v>23132.60759488328</v>
+        <v>23416.5673486614</v>
       </c>
       <c r="E6" t="n">
-        <v>56760.20759488328</v>
+        <v>57044.16734866137</v>
       </c>
       <c r="F6" t="n">
-        <v>56760.20759488329</v>
+        <v>57044.16734866135</v>
       </c>
       <c r="G6" t="n">
-        <v>55797.54779918658</v>
+        <v>14225.15515865643</v>
       </c>
       <c r="H6" t="n">
-        <v>15067.02308880373</v>
+        <v>68187.59005912874</v>
       </c>
       <c r="I6" t="n">
+        <v>68187.59005912872</v>
+      </c>
+      <c r="J6" t="n">
+        <v>56640.67194913785</v>
+      </c>
+      <c r="K6" t="n">
+        <v>68187.59005912871</v>
+      </c>
+      <c r="L6" t="n">
         <v>68187.59005912875</v>
       </c>
-      <c r="J6" t="n">
-        <v>57830.70615532492</v>
-      </c>
-      <c r="K6" t="n">
-        <v>68187.59005912872</v>
-      </c>
-      <c r="L6" t="n">
-        <v>68187.59005912872</v>
-      </c>
       <c r="M6" t="n">
+        <v>68187.59005912874</v>
+      </c>
+      <c r="N6" t="n">
+        <v>68187.59005912876</v>
+      </c>
+      <c r="O6" t="n">
+        <v>20807.71184166495</v>
+      </c>
+      <c r="P6" t="n">
         <v>68187.59005912875</v>
-      </c>
-      <c r="N6" t="n">
-        <v>68187.59005912875</v>
-      </c>
-      <c r="O6" t="n">
-        <v>67930.15896609981</v>
-      </c>
-      <c r="P6" t="n">
-        <v>56760.20759488328</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44.13217237922859</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>196.8821164984305</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N2" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34784,19 +34786,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N3" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M6" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M8" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M9" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35267,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N11" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,7 +35579,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="P15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>42.34905430330018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>42.34905430330019</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36206,10 +36208,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="N21" t="n">
         <v>240.0046611659691</v>
-      </c>
-      <c r="N21" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36440,10 +36442,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36452,10 +36454,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36683,13 +36685,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36920,13 +36922,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37148,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37312,7 +37314,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37388,22 +37390,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N39" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O39" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37783,7 +37785,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>163.8853874227249</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
         <v>219.1673002655598</v>
@@ -37859,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>104.4680418047872</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>39.58387696184059</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>39.58387696184059</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>37.98452839772582</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>39.58387696184059</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.58387696184059</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>39.58387696184059</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P45" t="n">
-        <v>37.98452839772582</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>39.58387696184059</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373308.7577998815</v>
+        <v>267779.7902310983</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2114249.189782366</v>
+        <v>925399.3994514373</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19492207.60956401</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5117112.456859928</v>
+        <v>5764697.373081759</v>
       </c>
     </row>
     <row r="11">
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>44.13217237922859</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -740,22 +740,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>52.0628898883872</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>44.13217237922859</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -940,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -980,22 +980,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>38.87161743162455</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>44.13217237922859</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>44.13217237922859</v>
+        <v>75.98437144330406</v>
       </c>
       <c r="I6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1095,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1147,16 +1147,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>44.13217237922859</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>44.13217237922859</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>44.13217237922859</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>16.93162886246722</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1220,13 +1220,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>44.13217237922859</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>38.87161743162454</v>
+        <v>82.57298228292689</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1332,22 +1332,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1387,13 +1387,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92232807701203</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>44.13217237922859</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1414,25 +1414,25 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>100.8824071085284</v>
       </c>
       <c r="W11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1451,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>90.26012311038538</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1551,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>218.2545356023572</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1651,19 +1651,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>28.88091821707973</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>44.13217237922859</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,22 +1736,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>123.3365499318637</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1779,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>208.2638363878125</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -1982,16 +1982,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>97.76646051984092</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2043,13 +2043,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G20" t="n">
-        <v>3.26531605719669</v>
-      </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>29.78216610882018</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2165,25 +2165,25 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>87.20907807295006</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2213,16 +2213,16 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>70.73885857389313</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2238,58 +2238,58 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2317,68 +2317,68 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S23" t="n">
+        <v>80.33470701582003</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2411,13 +2411,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>86.54482961934684</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2453,19 +2453,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="25">
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="U26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2681,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2702,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>33.80371536444981</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2888,13 +2888,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2927,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>219.2816264161388</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>170.0166754873252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3073,19 +3073,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3110,16 +3110,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>127.4509717989172</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3158,22 +3158,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>161.7854600615799</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3274,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
-        <v>3.26531605719669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3350,19 +3350,19 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>50.07657672585884</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3401,19 +3401,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>65.13060206523731</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3465,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>130.4655268502615</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3547,10 +3547,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>123.3365499318636</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -3647,10 +3647,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="40">
@@ -3720,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,11 +3739,11 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
@@ -3757,55 +3757,55 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.809496073036188</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3821,7 +3821,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3830,19 +3830,19 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>4.320372589888956</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>137.6233369660562</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3979,13 +3979,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>208.2638363878124</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>82.46119763909351</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4021,25 +4021,25 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4124,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="46">
@@ -4197,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>92.68647758675968</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>92.68647758675968</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>92.68647758675968</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X2" t="n">
-        <v>48.10852568854899</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.530573790338288</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="C3" t="n">
-        <v>3.530573790338288</v>
+        <v>566.8500717543842</v>
       </c>
       <c r="D3" t="n">
-        <v>3.530573790338288</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="E3" t="n">
-        <v>3.530573790338288</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F3" t="n">
-        <v>3.530573790338288</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G3" t="n">
-        <v>3.530573790338288</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>3.530573790338288</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>45.45613755060546</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>45.45613755060546</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>89.14698820604177</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>87.37278572049297</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>42.79483382228227</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>3.530573790338288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>3.530573790338288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W3" t="n">
-        <v>3.530573790338288</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X3" t="n">
-        <v>3.530573790338288</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.530573790338288</v>
+        <v>619.4388494194218</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C5" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U5" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V5" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X5" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y5" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C6" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="D6" t="n">
-        <v>176.5286895169144</v>
+        <v>540.5358718529395</v>
       </c>
       <c r="E6" t="n">
-        <v>176.5286895169144</v>
+        <v>381.298416847484</v>
       </c>
       <c r="F6" t="n">
-        <v>137.2644294849704</v>
+        <v>234.763858874369</v>
       </c>
       <c r="G6" t="n">
-        <v>92.68647758675968</v>
+        <v>96.0330334569845</v>
       </c>
       <c r="H6" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>45.45613755060546</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>45.45613755060546</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>45.45613755060546</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O6" t="n">
-        <v>89.14698820604177</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P6" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V6" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W6" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X6" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y6" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.68647758675968</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60.17851493563234</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C8" t="n">
-        <v>60.17851493563234</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D8" t="n">
-        <v>60.17851493563234</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E8" t="n">
-        <v>60.17851493563234</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="F8" t="n">
-        <v>60.17851493563234</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="G8" t="n">
-        <v>60.17851493563234</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="H8" t="n">
-        <v>60.17851493563234</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="I8" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>134.6031257566472</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>134.6031257566472</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>121.8591222504766</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>77.28117035226589</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>60.17851493563234</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>60.17851493563234</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>60.17851493563234</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>60.17851493563234</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>60.17851493563234</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>60.17851493563234</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.530573790338288</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="C9" t="n">
-        <v>3.530573790338288</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="D9" t="n">
-        <v>3.530573790338288</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E9" t="n">
-        <v>3.530573790338288</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F9" t="n">
-        <v>3.530573790338288</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>90.91227510121089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>132.8378388614781</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N9" t="n">
-        <v>132.8378388614781</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O9" t="n">
-        <v>132.8378388614781</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P9" t="n">
-        <v>132.8378388614781</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>87.37278572049297</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>42.79483382228227</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U9" t="n">
-        <v>3.530573790338288</v>
+        <v>707.2327581502678</v>
       </c>
       <c r="V9" t="n">
-        <v>3.530573790338288</v>
+        <v>707.2327581502678</v>
       </c>
       <c r="W9" t="n">
-        <v>3.530573790338288</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="X9" t="n">
-        <v>3.530573790338288</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.530573790338288</v>
+        <v>463.7839815061678</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>92.68647758675968</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>131.9507376187037</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C11" t="n">
-        <v>87.37278572049297</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D11" t="n">
-        <v>87.37278572049297</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E11" t="n">
-        <v>87.37278572049297</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F11" t="n">
-        <v>87.37278572049297</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G11" t="n">
-        <v>87.37278572049297</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H11" t="n">
-        <v>60.17851493563234</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I11" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>134.6031257566472</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>176.5286895169144</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T11" t="n">
-        <v>176.5286895169144</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U11" t="n">
-        <v>176.5286895169144</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V11" t="n">
-        <v>176.5286895169144</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="W11" t="n">
-        <v>131.9507376187037</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="X11" t="n">
-        <v>131.9507376187037</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y11" t="n">
-        <v>131.9507376187037</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.5286895169144</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C12" t="n">
-        <v>131.9507376187037</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D12" t="n">
-        <v>87.37278572049297</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E12" t="n">
-        <v>87.37278572049297</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F12" t="n">
-        <v>87.37278572049297</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G12" t="n">
-        <v>87.37278572049297</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>42.79483382228227</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>90.91227510121089</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>132.8378388614781</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>132.8378388614781</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O12" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P12" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T12" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U12" t="n">
-        <v>176.5286895169144</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V12" t="n">
-        <v>176.5286895169144</v>
+        <v>471.2443511720524</v>
       </c>
       <c r="W12" t="n">
-        <v>176.5286895169144</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="X12" t="n">
-        <v>176.5286895169144</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y12" t="n">
-        <v>176.5286895169144</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.530573790338288</v>
+        <v>251.810259228364</v>
       </c>
       <c r="C14" t="n">
-        <v>3.530573790338288</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D14" t="n">
-        <v>3.530573790338288</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E14" t="n">
-        <v>3.530573790338288</v>
+        <v>251.810259228364</v>
       </c>
       <c r="F14" t="n">
-        <v>3.530573790338288</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G14" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H14" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I14" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>47.22142444577459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>121.8591222504766</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>77.28117035226589</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>48.10852568854899</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U14" t="n">
-        <v>3.530573790338288</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V14" t="n">
-        <v>3.530573790338288</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W14" t="n">
-        <v>3.530573790338288</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X14" t="n">
-        <v>3.530573790338288</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.530573790338288</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>137.2644294849704</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="C15" t="n">
-        <v>137.2644294849704</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D15" t="n">
-        <v>137.2644294849704</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E15" t="n">
-        <v>137.2644294849704</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F15" t="n">
-        <v>137.2644294849704</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G15" t="n">
-        <v>92.68647758675968</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H15" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>3.530573790338288</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M15" t="n">
-        <v>47.22142444577459</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N15" t="n">
-        <v>47.22142444577459</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>89.14698820604177</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>137.2644294849704</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V15" t="n">
-        <v>137.2644294849704</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W15" t="n">
-        <v>137.2644294849704</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X15" t="n">
-        <v>137.2644294849704</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="Y15" t="n">
-        <v>137.2644294849704</v>
+        <v>132.6502787026334</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
         <v>31.35113235729608</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="18">
@@ -5603,13 +5603,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5618,25 +5618,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y18" t="n">
         <v>19.28114311021272</v>
@@ -5691,19 +5691,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>509.4769954460863</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="C20" t="n">
-        <v>509.4769954460863</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="D20" t="n">
-        <v>509.4769954460863</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="E20" t="n">
-        <v>266.0282188019862</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="F20" t="n">
-        <v>22.57944215788615</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9257720901863</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>752.9257720901863</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U20" t="n">
-        <v>752.9257720901863</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V20" t="n">
-        <v>752.9257720901863</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W20" t="n">
-        <v>752.9257720901863</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X20" t="n">
-        <v>509.4769954460863</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y20" t="n">
-        <v>509.4769954460863</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>756.2968567456824</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>756.2968567456824</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5861,22 +5861,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W21" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X21" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y21" t="n">
-        <v>756.2968567456824</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5937,25 +5937,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6013,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>419.8840176262463</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>245.4309883451193</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>245.4309883451193</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>245.4309883451193</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>245.4309883451193</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>106.7001629277348</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>106.7001629277348</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6071,49 +6071,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>496.4894350879777</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O24" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>627.7355178317791</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>627.7355178317791</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>419.8840176262463</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>419.8840176262463</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6177,13 +6177,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="27">
@@ -6308,16 +6308,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>74.24228005117135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
+        <v>249.2442489785619</v>
+      </c>
+      <c r="M27" t="n">
         <v>304.2053859195205</v>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>542.809531908403</v>
-      </c>
-      <c r="N27" t="n">
-        <v>781.4136778972854</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6329,25 +6329,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="T27" t="n">
-        <v>933.9571464551993</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U27" t="n">
-        <v>705.7335281915883</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V27" t="n">
-        <v>470.5814199598456</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W27" t="n">
-        <v>227.1326433157456</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
         <v>19.28114311021272</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>475.3318284112885</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C29" t="n">
-        <v>475.3318284112885</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="D29" t="n">
-        <v>475.3318284112885</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="E29" t="n">
-        <v>475.3318284112885</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="F29" t="n">
-        <v>475.3318284112885</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="G29" t="n">
-        <v>231.8830517671884</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="H29" t="n">
         <v>231.8830517671884</v>
@@ -6487,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>962.2293816994886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>962.2293816994886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U29" t="n">
-        <v>962.2293816994886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V29" t="n">
-        <v>718.7806050553886</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W29" t="n">
-        <v>718.7806050553886</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X29" t="n">
-        <v>718.7806050553886</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y29" t="n">
-        <v>475.3318284112885</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="30">
@@ -6518,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>341.0228630172405</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="C30" t="n">
-        <v>166.5698337361135</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="D30" t="n">
-        <v>166.5698337361135</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="E30" t="n">
-        <v>166.5698337361135</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6575,19 +6575,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>720.6083788665362</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="X30" t="n">
-        <v>512.7568786610034</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="Y30" t="n">
-        <v>341.0228630172405</v>
+        <v>279.1848366757484</v>
       </c>
     </row>
     <row r="31">
@@ -6660,10 +6660,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
         <v>19.28114311021272</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>960.7588564629629</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>481.7099827492369</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>307.2569534681098</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>307.2569534681098</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>148.0194984626543</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6785,16 +6785,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6806,25 +6806,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>689.4702815141908</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V33" t="n">
-        <v>689.4702815141908</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W33" t="n">
-        <v>689.4702815141908</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="X33" t="n">
-        <v>689.4702815141908</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y33" t="n">
-        <v>481.7099827492369</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G34" t="n">
         <v>19.28114311021272</v>
@@ -6876,34 +6876,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>22.57944215788615</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C35" t="n">
-        <v>22.57944215788615</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D35" t="n">
-        <v>22.57944215788615</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E35" t="n">
-        <v>22.57944215788615</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F35" t="n">
-        <v>22.57944215788615</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6964,25 +6964,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>266.0282188019862</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>22.57944215788615</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>22.57944215788615</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>22.57944215788615</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>627.7355178317791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>627.7355178317791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>577.1531170985884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7019,49 +7019,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>613.2059550252818</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O36" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>627.7355178317791</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>627.7355178317791</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X36" t="n">
-        <v>627.7355178317791</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y36" t="n">
-        <v>627.7355178317791</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7113,25 +7113,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>333.7844730889342</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C38" t="n">
-        <v>333.7844730889342</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D38" t="n">
-        <v>333.7844730889342</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E38" t="n">
-        <v>333.7844730889342</v>
+        <v>495.259035872464</v>
       </c>
       <c r="F38" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>577.2332497330343</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U38" t="n">
-        <v>577.2332497330343</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V38" t="n">
-        <v>577.2332497330343</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W38" t="n">
-        <v>577.2332497330343</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X38" t="n">
-        <v>577.2332497330343</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y38" t="n">
-        <v>577.2332497330343</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7283,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>839.4747818420872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>611.2511635784762</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>376.0990553467335</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>132.6502787026334</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>132.6502787026334</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G41" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V41" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W41" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X41" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>344.6327430815143</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C42" t="n">
-        <v>170.1797138003873</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>170.1797138003873</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>170.1797138003873</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>23.64515582727228</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>23.64515582727228</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7502,7 +7502,7 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
         <v>964.0571555106362</v>
@@ -7517,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="X42" t="n">
-        <v>720.6083788665362</v>
+        <v>188.2506127830665</v>
       </c>
       <c r="Y42" t="n">
-        <v>512.8480801015824</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="43">
@@ -7596,13 +7596,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
         <v>19.28114311021272</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>114.6452713866835</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C44" t="n">
-        <v>114.6452713866835</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D44" t="n">
-        <v>114.6452713866835</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E44" t="n">
-        <v>114.6452713866835</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F44" t="n">
-        <v>114.6452713866835</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G44" t="n">
-        <v>114.6452713866835</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
         <v>31.35113235729608</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>601.5428246748836</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U44" t="n">
-        <v>358.0940480307835</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V44" t="n">
-        <v>114.6452713866835</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W44" t="n">
-        <v>114.6452713866835</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X44" t="n">
-        <v>114.6452713866835</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y44" t="n">
-        <v>114.6452713866835</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>69.84447166430675</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7736,16 +7736,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N45" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7760,19 +7760,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>485.4562706347935</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>277.6047704292607</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
-        <v>69.84447166430675</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7845,7 +7845,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
         <v>19.28114311021272</v>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>184.4830882253185</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O3" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>180.9034340831744</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>178.1065797935588</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>182.6865521591028</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.1139464652501</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9011,22 +9011,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M15" t="n">
-        <v>186.2662063012469</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>184.9452987477446</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9251,16 +9251,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9719,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,19 +9956,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>193.3577389147212</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10193,13 +10193,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10208,7 +10208,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10433,19 +10433,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>222.4246658592332</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,16 +10676,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -11150,10 +11150,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O42" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -11384,19 +11384,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22597,25 +22597,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>170.1484521546208</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>207.2134805286079</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>325.5989282992405</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>342.105766276825</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22628,22 +22628,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>120.6456090999285</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -22673,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>56.02566177341454</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>187.0697646493503</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22722,16 +22722,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22764,7 +22764,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22786,25 +22786,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>362.7438733624829</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>171.6042721387814</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22828,16 +22828,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22868,22 +22868,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>106.1975949617593</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>93.21134478398204</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>68.10327185726787</v>
+        <v>36.25107279319241</v>
       </c>
       <c r="I6" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22910,10 +22910,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22983,16 +22983,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.930990287424243</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>179.8844256577437</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23035,16 +23035,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>166.3437171911773</v>
+        <v>126.0561017912447</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,13 +23068,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>105.7369455619211</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8878972070167</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.1642207016641</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23108,13 +23108,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23147,22 +23147,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>127.5509987246092</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>187.0697646493503</v>
+        <v>143.3683997980479</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23220,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.930990287424243</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23260,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>321.1407193917789</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23275,13 +23275,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>312.5524740387551</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>166.3437171911773</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,25 +23302,25 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>226.8698513616065</v>
       </c>
       <c r="W11" t="n">
-        <v>305.1087963381844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23339,10 +23339,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>128.5763266090871</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>103.3128931854102</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23354,13 +23354,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>50.52501541979053</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>142.5404640390399</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>157.1788491809093</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23439,10 +23439,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.4524809728662</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23509,7 +23509,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>197.0482019127778</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23518,7 +23518,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>194.2149313470516</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23588,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>68.10327185726787</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23624,22 +23624,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>132.8115536722133</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>82.4364352716138</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.2005289107765</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>118.095000128211</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23734,25 +23734,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23785,10 +23785,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>43.08181652002401</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23870,16 +23870,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>153.9285226410787</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23931,13 +23931,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23946,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23977,22 +23977,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>412.0374214579384</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>309.6926360069469</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24034,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24053,25 +24053,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>60.23598749168869</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24101,16 +24101,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>180.9561245870265</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24177,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24220,10 +24220,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24253,19 +24253,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24287,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24299,13 +24299,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>2.851803232068235</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24341,19 +24341,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="25">
@@ -24417,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24466,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24496,19 +24496,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>32.75045248984648</v>
       </c>
       <c r="U26" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>50.10013888409016</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24648,13 +24648,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24697,7 +24697,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>305.6710867513173</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24727,10 +24727,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>148.0596218681135</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24761,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24776,13 +24776,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24815,19 +24815,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>32.4133567447808</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>35.66602028997914</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24900,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="32">
@@ -24931,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24961,19 +24961,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>146.6038018839531</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24982,10 +24982,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24998,16 +24998,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>17.6182405944667</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25046,22 +25046,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>43.98752514189758</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25116,7 +25116,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
         <v>86.16204325169439</v>
@@ -25128,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>97.48006257801995</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25162,13 +25162,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>412.0374214579384</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25204,22 +25204,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25238,19 +25238,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>97.36848883877991</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25289,19 +25289,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>186.5643810956823</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25353,7 +25353,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>156.0574714863295</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25402,16 +25402,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>176.6722207847417</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>140.1318817691307</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25435,10 +25435,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25487,7 +25487,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25523,7 +25523,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>76.82817876295805</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25535,10 +25535,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="40">
@@ -25608,10 +25608,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25645,13 +25645,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25684,16 +25684,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>146.9462822885158</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25709,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25718,19 +25718,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>107.9150716466075</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25757,25 +25757,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>68.1496482374213</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25836,7 +25836,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25845,7 +25845,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25867,13 +25867,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>173.6665336844493</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25882,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>257.0136044766737</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25909,25 +25909,25 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25946,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>122.6508037197626</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -26000,7 +26000,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="46">
@@ -26085,10 +26085,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>358671.2447770133</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>358671.2447770133</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>358671.2447770134</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358671.2447770133</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>358671.2447770133</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>498541.5625390692</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65754.15294315932</v>
+        <v>91388.36989223279</v>
       </c>
       <c r="C2" t="n">
-        <v>65754.15294315931</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="D2" t="n">
-        <v>65754.15294315934</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="E2" t="n">
-        <v>65754.15294315931</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="F2" t="n">
-        <v>65754.15294315929</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="G2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="H2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223285</v>
       </c>
       <c r="I2" t="n">
-        <v>91388.36989223279</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="J2" t="n">
         <v>91388.3698922328</v>
       </c>
       <c r="K2" t="n">
-        <v>91388.36989223277</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="L2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="M2" t="n">
+        <v>91388.36989223279</v>
+      </c>
+      <c r="N2" t="n">
         <v>91388.3698922328</v>
-      </c>
-      <c r="N2" t="n">
-        <v>91388.36989223283</v>
       </c>
       <c r="O2" t="n">
         <v>91388.3698922328</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53962.43490047232</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47379.87821746379</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="C4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="D4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="E4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="F4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="G4" t="n">
         <v>8547.111069342402</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8626.861344417164</v>
+        <v>-58427.45209245948</v>
       </c>
       <c r="C6" t="n">
-        <v>23416.56734866137</v>
+        <v>22341.97943908827</v>
       </c>
       <c r="D6" t="n">
-        <v>23416.5673486614</v>
+        <v>22341.97943908827</v>
       </c>
       <c r="E6" t="n">
-        <v>57044.16734866137</v>
+        <v>55969.5794390883</v>
       </c>
       <c r="F6" t="n">
-        <v>57044.16734866135</v>
+        <v>55969.57943908827</v>
       </c>
       <c r="G6" t="n">
-        <v>14225.15515865643</v>
+        <v>55969.57943908829</v>
       </c>
       <c r="H6" t="n">
-        <v>68187.59005912874</v>
+        <v>55969.57943908832</v>
       </c>
       <c r="I6" t="n">
-        <v>68187.59005912872</v>
+        <v>55969.57943908829</v>
       </c>
       <c r="J6" t="n">
-        <v>56640.67194913785</v>
+        <v>-7090.363160017965</v>
       </c>
       <c r="K6" t="n">
-        <v>68187.59005912871</v>
+        <v>55969.57943908827</v>
       </c>
       <c r="L6" t="n">
-        <v>68187.59005912875</v>
+        <v>55969.57943908829</v>
       </c>
       <c r="M6" t="n">
-        <v>68187.59005912874</v>
+        <v>55969.57943908826</v>
       </c>
       <c r="N6" t="n">
-        <v>68187.59005912876</v>
+        <v>55969.57943908827</v>
       </c>
       <c r="O6" t="n">
-        <v>20807.71184166495</v>
+        <v>55969.57943908827</v>
       </c>
       <c r="P6" t="n">
-        <v>68187.59005912875</v>
+        <v>55969.57943908828</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>42.34905430330019</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O3" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>42.34905430330019</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>44.13217237922859</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>42.34905430330016</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>42.34905430330019</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.13217237922859</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>42.34905430330016</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>42.34905430330019</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>42.34905430330018</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M15" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O20" t="n">
         <v>150.7019698410586</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36913,13 +36913,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36928,7 +36928,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37314,7 +37314,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37396,16 +37396,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37870,10 +37870,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O42" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O42" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38104,19 +38104,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>99.8112771299739</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
